--- a/movieBookingData.xlsx
+++ b/movieBookingData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivdas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA34AE5E-C5FB-484D-9525-1B10291E1553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D1A92B-658A-4B9A-8FEF-8B10B7489A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C115F33B-D239-4A91-B02D-45000CFC9226}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="37">
   <si>
     <t>cityName</t>
   </si>
@@ -77,9 +77,6 @@
     <t>PVR Chennai</t>
   </si>
   <si>
-    <t>Avatar, way of water</t>
-  </si>
-  <si>
     <t>Fun Cinemas Pune</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>Top Gun : Maverick</t>
   </si>
   <si>
-    <t>Avatar: the way of water</t>
-  </si>
-  <si>
     <t>John Wick : Chapter 5</t>
   </si>
   <si>
@@ -150,6 +144,9 @@
   </si>
   <si>
     <t>15:00-18:00</t>
+  </si>
+  <si>
+    <t>Avatar: way of water</t>
   </si>
 </sst>
 </file>
@@ -518,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CADB75-6188-4FAA-9178-D8EFDBF60D35}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -560,16 +557,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>7.7</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -577,19 +574,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>7.7</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -597,19 +594,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>7.7</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -620,16 +617,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>7.9</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -637,19 +634,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>7.9</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -657,19 +654,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>7.9</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -680,16 +677,16 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>8.3000000000000007</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -697,19 +694,19 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>8.3000000000000007</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -717,19 +714,19 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>8.3000000000000007</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -740,16 +737,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>7.7</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -757,19 +754,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>7.7</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -777,19 +774,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>7.7</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -800,16 +797,16 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>7.9</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -817,19 +814,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>7.9</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -837,19 +834,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
         <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>7.9</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -860,16 +857,16 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>8.3000000000000007</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -877,19 +874,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>8.3000000000000007</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -897,19 +894,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>8.3000000000000007</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -920,16 +917,16 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>7.7</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -937,19 +934,19 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>7.7</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -957,19 +954,19 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>7.7</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -980,16 +977,16 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>7.9</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -997,19 +994,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>7.9</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1017,19 +1014,19 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
         <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
       </c>
       <c r="E25">
         <v>7.9</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1040,16 +1037,16 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>8.3000000000000007</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1057,19 +1054,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>8.3000000000000007</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1077,199 +1074,199 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>8.3000000000000007</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>7.7</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>7.7</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>7.7</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>7.9</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>7.9</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
         <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
       </c>
       <c r="E34">
         <v>7.9</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E35">
         <v>8.3000000000000007</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
         <v>28</v>
       </c>
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E36">
         <v>8.3000000000000007</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E37">
         <v>8.3000000000000007</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1280,16 +1277,16 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>7.7</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1297,19 +1294,19 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>7.7</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1317,19 +1314,19 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E40">
         <v>7.7</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1340,16 +1337,16 @@
         <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E41">
         <v>7.9</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1357,19 +1354,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E42">
         <v>7.9</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1377,19 +1374,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
         <v>20</v>
-      </c>
-      <c r="D43" t="s">
-        <v>22</v>
       </c>
       <c r="E43">
         <v>7.9</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1400,16 +1397,16 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E44">
         <v>8.3000000000000007</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1417,19 +1414,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E45">
         <v>8.3000000000000007</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1437,19 +1434,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46">
         <v>8.3000000000000007</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
